--- a/data/trans_orig/ESTUDIOS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E45C36A-78D5-4157-A67E-42EAB7D6D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94001FA2-A495-4F3B-B88B-B52C3835A424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA86451D-C445-439E-9C64-543DA2A247D2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96B15671-12E4-4FC5-BEBB-5821F79AC532}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="176">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -140,79 +140,79 @@
     <t>16,83%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
   </si>
   <si>
     <t>46,98%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>49,3%</t>
   </si>
   <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>38,92%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>34,11%</t>
+    <t>34,18%</t>
   </si>
   <si>
     <t>36,43%</t>
@@ -263,43 +263,46 @@
     <t>14,07%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>11,81%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>57,43%</t>
   </si>
   <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>53,37%</t>
@@ -308,7 +311,7 @@
     <t>52,09%</t>
   </si>
   <si>
-    <t>54,63%</t>
+    <t>54,58%</t>
   </si>
   <si>
     <t>28,5%</t>
@@ -317,25 +320,25 @@
     <t>26,87%</t>
   </si>
   <si>
-    <t>30,07%</t>
+    <t>30,19%</t>
   </si>
   <si>
     <t>37,64%</t>
   </si>
   <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>Nivel de estudios en 2015 (Tasa respuesta: 99,57%)</t>
@@ -374,82 +377,82 @@
     <t>16,19%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>56,29%</t>
   </si>
   <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>58,83%</t>
   </si>
   <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
@@ -488,82 +491,82 @@
     <t>19,93%</t>
   </si>
   <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>20,37%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
 </sst>
 </file>
@@ -975,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0BA546-22F2-4782-B176-DA1D5AF2EE61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17E79E7-C101-4585-A0E8-77CBD6D24413}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1744,7 +1747,7 @@
         <v>979</v>
       </c>
       <c r="N16" s="7">
-        <v>1027819</v>
+        <v>1027820</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>38</v>
@@ -1795,7 +1798,7 @@
         <v>3203</v>
       </c>
       <c r="N17" s="7">
-        <v>3281085</v>
+        <v>3281086</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>47</v>
@@ -1846,7 +1849,7 @@
         <v>2329</v>
       </c>
       <c r="N18" s="7">
-        <v>2346835</v>
+        <v>2346836</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>56</v>
@@ -1897,7 +1900,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>19</v>
@@ -1930,7 +1933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EA16A9-866D-42FD-B2CD-638330FD43BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5E8E0F-344F-475B-A2DD-5BD867C0CC94}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2693,7 +2696,7 @@
         <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>850</v>
@@ -2702,13 +2705,13 @@
         <v>939813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2726,13 @@
         <v>1963957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>1635</v>
@@ -2738,13 +2741,13 @@
         <v>1757803</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>3491</v>
@@ -2753,13 +2756,13 @@
         <v>3721760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2777,13 @@
         <v>974643</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>1247</v>
@@ -2789,13 +2792,13 @@
         <v>1337796</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>2155</v>
@@ -2804,13 +2807,13 @@
         <v>2312440</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F287B52E-F01C-4265-A12F-1AEF408D3CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DA924C-7A40-4F3D-BA6D-F221865FC506}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2902,7 +2905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3015,7 +3018,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3030,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3066,7 +3069,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3081,7 +3084,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3114,7 +3117,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -3129,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>19</v>
@@ -3251,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,7 +3302,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>19</v>
@@ -3353,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,7 +3427,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>19</v>
@@ -3454,7 +3457,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>19</v>
@@ -3478,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3508,7 +3511,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,7 +3532,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3559,7 +3562,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3630,13 @@
         <v>546886</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>526</v>
@@ -3642,13 +3645,13 @@
         <v>549140</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>1027</v>
@@ -3657,13 +3660,13 @@
         <v>1096027</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3681,13 @@
         <v>2076385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>1908</v>
@@ -3693,13 +3696,13 @@
         <v>1988300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>3860</v>
@@ -3708,13 +3711,13 @@
         <v>4064685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3732,13 @@
         <v>754347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>892</v>
@@ -3744,13 +3747,13 @@
         <v>994660</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M18" s="7">
         <v>1654</v>
@@ -3759,13 +3762,13 @@
         <v>1749007</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97899160-91E4-4AC5-A217-D27753B4EF51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8947EC8-820D-4B60-846F-040D42894F19}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3857,7 +3860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3970,7 +3973,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3985,7 +3988,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4021,7 +4024,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4036,7 +4039,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4069,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -4084,7 +4087,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>19</v>
@@ -4191,7 +4194,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4206,7 +4209,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4236,13 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>19</v>
@@ -4254,7 +4257,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>19</v>
@@ -4293,7 +4296,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4308,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,7 +4338,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -4379,7 +4382,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>19</v>
@@ -4394,7 +4397,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>19</v>
@@ -4409,7 +4412,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>19</v>
@@ -4433,7 +4436,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4448,7 +4451,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4463,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,7 +4487,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4499,7 +4502,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4514,7 +4517,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4585,13 @@
         <v>673039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>1004</v>
@@ -4597,28 +4600,28 @@
         <v>713887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>1685</v>
       </c>
       <c r="N16" s="7">
-        <v>1386926</v>
+        <v>1386925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4636,13 @@
         <v>2162022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>2921</v>
@@ -4648,28 +4651,28 @@
         <v>2249521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>4913</v>
       </c>
       <c r="N17" s="7">
-        <v>4411543</v>
+        <v>4411542</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4687,13 @@
         <v>541634</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>1427</v>
@@ -4699,28 +4702,28 @@
         <v>835953</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>2118</v>
       </c>
       <c r="N18" s="7">
-        <v>1377587</v>
+        <v>1377586</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,7 +4735,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -4762,7 +4765,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/ESTUDIOS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94001FA2-A495-4F3B-B88B-B52C3835A424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0505ADB-21BF-45DA-8997-FAF7092E621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96B15671-12E4-4FC5-BEBB-5821F79AC532}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A43BCC9A-95A4-4368-84EE-D7DAEB6BE451}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="174">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -140,82 +140,82 @@
     <t>16,83%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
   </si>
   <si>
     <t>46,98%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
   </si>
   <si>
     <t>49,3%</t>
   </si>
   <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
   </si>
   <si>
     <t>38,92%</t>
   </si>
   <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -263,85 +263,82 @@
     <t>14,07%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>57,43%</t>
   </si>
   <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
   </si>
   <si>
     <t>53,37%</t>
   </si>
   <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>28,5%</t>
   </si>
   <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>37,64%</t>
   </si>
   <si>
-    <t>35,93%</t>
+    <t>36,03%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2015 (Tasa respuesta: 99,57%)</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -377,73 +374,70 @@
     <t>16,19%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>15,01%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
   </si>
   <si>
     <t>56,29%</t>
   </si>
   <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
   </si>
   <si>
     <t>58,83%</t>
   </si>
   <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>25,31%</t>
@@ -452,7 +446,7 @@
     <t>24,27%</t>
   </si>
   <si>
-    <t>26,44%</t>
+    <t>26,43%</t>
   </si>
   <si>
     <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
@@ -978,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17E79E7-C101-4585-A0E8-77CBD6D24413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6914061-074A-49F2-B466-4AE879CB461A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1356,7 +1350,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>17</v>
@@ -1458,7 +1452,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -1768,7 +1762,7 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>41</v>
@@ -1870,7 +1864,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -1933,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5E8E0F-344F-475B-A2DD-5BD867C0CC94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342A7215-CEFE-4E90-8A39-5820D98B0F15}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2807,13 +2801,13 @@
         <v>2312440</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,7 +2882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DA924C-7A40-4F3D-BA6D-F221865FC506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160794EB-7D21-4DD3-BD4D-3DC628F37C2C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2905,7 +2899,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3018,22 +3012,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3069,22 +3063,22 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3117,7 +3111,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -3132,7 +3126,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>19</v>
@@ -3254,7 +3248,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,7 +3296,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>19</v>
@@ -3356,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,7 +3421,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>19</v>
@@ -3457,7 +3451,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>19</v>
@@ -3481,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3511,7 +3505,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3562,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3624,13 @@
         <v>546886</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>526</v>
@@ -3645,13 +3639,13 @@
         <v>549140</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>1027</v>
@@ -3660,13 +3654,13 @@
         <v>1096027</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3675,13 @@
         <v>2076385</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>1908</v>
@@ -3696,13 +3690,13 @@
         <v>1988300</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>3860</v>
@@ -3711,13 +3705,13 @@
         <v>4064685</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3726,13 @@
         <v>754347</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>892</v>
@@ -3747,13 +3741,13 @@
         <v>994660</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M18" s="7">
         <v>1654</v>
@@ -3762,13 +3756,13 @@
         <v>1749007</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8947EC8-820D-4B60-846F-040D42894F19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE123D0-D737-4480-AA95-C7137C40181F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,7 +3854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3973,7 +3967,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3988,7 +3982,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4024,7 +4018,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4039,7 +4033,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4072,7 +4066,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -4087,7 +4081,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>19</v>
@@ -4194,7 +4188,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4209,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4236,7 @@
         <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>19</v>
@@ -4257,7 +4251,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>19</v>
@@ -4296,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4311,7 +4305,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,7 +4376,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>19</v>
@@ -4397,7 +4391,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>19</v>
@@ -4412,7 +4406,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>19</v>
@@ -4436,7 +4430,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4451,7 +4445,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4466,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4502,7 +4496,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4517,7 +4511,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4579,13 @@
         <v>673039</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>1004</v>
@@ -4600,13 +4594,13 @@
         <v>713887</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>1685</v>
@@ -4615,13 +4609,13 @@
         <v>1386925</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4630,13 @@
         <v>2162022</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>2921</v>
@@ -4651,13 +4645,13 @@
         <v>2249521</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>4913</v>
@@ -4666,13 +4660,13 @@
         <v>4411542</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4681,13 @@
         <v>541634</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>1427</v>
@@ -4702,13 +4696,13 @@
         <v>835953</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>2118</v>
@@ -4717,13 +4711,13 @@
         <v>1377586</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/ESTUDIOS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0505ADB-21BF-45DA-8997-FAF7092E621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25938A4A-9349-439E-B028-F128286A1136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A43BCC9A-95A4-4368-84EE-D7DAEB6BE451}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD1C628B-5EEC-435C-ADC6-CE16B8E98849}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="175">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -140,292 +140,295 @@
     <t>16,83%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>46,98%</t>
   </si>
   <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
   </si>
   <si>
     <t>49,3%</t>
   </si>
   <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>29,88%</t>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>16,75%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>15,01%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
   </si>
   <si>
     <t>56,29%</t>
   </si>
   <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
   </si>
   <si>
     <t>58,83%</t>
   </si>
   <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>20,99%</t>
+    <t>20,84%</t>
   </si>
   <si>
     <t>23,86%</t>
@@ -434,19 +437,19 @@
     <t>28,16%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
   </si>
   <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
   <si>
     <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
@@ -485,7 +488,7 @@
     <t>19,93%</t>
   </si>
   <si>
-    <t>18,31%</t>
+    <t>18,24%</t>
   </si>
   <si>
     <t>21,46%</t>
@@ -494,73 +497,73 @@
     <t>18,79%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
   </si>
   <si>
     <t>19,33%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6914061-074A-49F2-B466-4AE879CB461A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75958E23-465A-4262-8A69-C2257540D8B0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1350,7 +1353,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>17</v>
@@ -1452,7 +1455,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -1741,7 +1744,7 @@
         <v>979</v>
       </c>
       <c r="N16" s="7">
-        <v>1027820</v>
+        <v>1027819</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>38</v>
@@ -1762,7 +1765,7 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>41</v>
@@ -1792,7 +1795,7 @@
         <v>3203</v>
       </c>
       <c r="N17" s="7">
-        <v>3281086</v>
+        <v>3281085</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>47</v>
@@ -1843,7 +1846,7 @@
         <v>2329</v>
       </c>
       <c r="N18" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>56</v>
@@ -1864,7 +1867,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -1894,7 +1897,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>19</v>
@@ -1927,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342A7215-CEFE-4E90-8A39-5820D98B0F15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD32BE7-281C-42E5-A27F-A83B235351E4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2690,7 +2693,7 @@
         <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>850</v>
@@ -2699,13 +2702,13 @@
         <v>939813</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2723,13 @@
         <v>1963957</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>1635</v>
@@ -2735,13 +2738,13 @@
         <v>1757803</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>3491</v>
@@ -2750,13 +2753,13 @@
         <v>3721760</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2774,13 @@
         <v>974643</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>1247</v>
@@ -2786,13 +2789,13 @@
         <v>1337796</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>2155</v>
@@ -2801,7 +2804,7 @@
         <v>2312440</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>97</v>
@@ -2882,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160794EB-7D21-4DD3-BD4D-3DC628F37C2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FE165F-1DE3-45C6-A3E5-3DE1E20E2098}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3660,7 +3663,7 @@
         <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3678,13 @@
         <v>2076385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>1908</v>
@@ -3690,13 +3693,13 @@
         <v>1988300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>3860</v>
@@ -3705,13 +3708,13 @@
         <v>4064685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3729,13 @@
         <v>754347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H18" s="7">
         <v>892</v>
@@ -3741,13 +3744,13 @@
         <v>994660</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>1654</v>
@@ -3756,13 +3759,13 @@
         <v>1749007</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE123D0-D737-4480-AA95-C7137C40181F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939C2721-AD9A-4768-ACBC-F64C58261244}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3854,7 +3857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3967,7 +3970,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3982,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4018,7 +4021,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4033,7 +4036,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4066,7 +4069,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -4081,7 +4084,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>19</v>
@@ -4188,7 +4191,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4203,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4233,13 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>19</v>
@@ -4251,7 +4254,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>19</v>
@@ -4290,7 +4293,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4305,7 +4308,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4335,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -4376,7 +4379,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>19</v>
@@ -4406,7 +4409,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>19</v>
@@ -4430,7 +4433,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4460,7 +4463,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,7 +4484,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4511,7 +4514,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4582,13 @@
         <v>673039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>1004</v>
@@ -4594,28 +4597,28 @@
         <v>713887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>1685</v>
       </c>
       <c r="N16" s="7">
-        <v>1386925</v>
+        <v>1386926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4633,13 @@
         <v>2162022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>2921</v>
@@ -4645,28 +4648,28 @@
         <v>2249521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>4913</v>
       </c>
       <c r="N17" s="7">
-        <v>4411542</v>
+        <v>4411543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4684,13 @@
         <v>541634</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H18" s="7">
         <v>1427</v>
@@ -4696,28 +4699,28 @@
         <v>835953</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M18" s="7">
         <v>2118</v>
       </c>
       <c r="N18" s="7">
-        <v>1377586</v>
+        <v>1377587</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,7 +4732,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -4759,7 +4762,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/ESTUDIOS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25938A4A-9349-439E-B028-F128286A1136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B1946CE-12BE-4027-B2A8-40D5BF42A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD1C628B-5EEC-435C-ADC6-CE16B8E98849}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F817F5C5-C827-43F2-8C3D-A7AC0AD744EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="174">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -485,85 +485,82 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
 </sst>
 </file>
@@ -975,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75958E23-465A-4262-8A69-C2257540D8B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F384D81-5882-4F62-A924-19220610521F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1228,7 +1225,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>17</v>
@@ -1279,7 +1276,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>19</v>
@@ -1353,7 +1350,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>17</v>
@@ -1455,7 +1452,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -1744,7 +1741,7 @@
         <v>979</v>
       </c>
       <c r="N16" s="7">
-        <v>1027819</v>
+        <v>1027820</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>38</v>
@@ -1765,7 +1762,7 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>41</v>
@@ -1795,7 +1792,7 @@
         <v>3203</v>
       </c>
       <c r="N17" s="7">
-        <v>3281085</v>
+        <v>3281086</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>47</v>
@@ -1846,7 +1843,7 @@
         <v>2329</v>
       </c>
       <c r="N18" s="7">
-        <v>2346835</v>
+        <v>2346836</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>56</v>
@@ -1867,7 +1864,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -1882,7 +1879,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>19</v>
@@ -1897,7 +1894,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>19</v>
@@ -1930,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD32BE7-281C-42E5-A27F-A83B235351E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61266653-2C04-43DF-8C6B-0E2466A378C6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2168,7 +2165,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>17</v>
@@ -2219,7 +2216,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>19</v>
@@ -2493,7 +2490,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>17</v>
@@ -2646,7 +2643,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2885,7 +2882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FE165F-1DE3-45C6-A3E5-3DE1E20E2098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535B4C28-04D1-4A32-91A8-A4B67236DFF3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3448,7 +3445,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>17</v>
@@ -3601,7 +3598,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3840,7 +3837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939C2721-AD9A-4768-ACBC-F64C58261244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933B7663-FEAC-4E9C-99E4-18D5EE713D59}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4063,7 +4060,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
@@ -4078,7 +4075,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>17</v>
@@ -4093,7 +4090,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>17</v>
@@ -4114,7 +4111,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
@@ -4129,7 +4126,7 @@
         <v>1427</v>
       </c>
       <c r="I7" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>19</v>
@@ -4144,7 +4141,7 @@
         <v>2118</v>
       </c>
       <c r="N7" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>19</v>
@@ -4218,7 +4215,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>17</v>
@@ -4233,7 +4230,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>17</v>
@@ -4248,7 +4245,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>17</v>
@@ -4320,7 +4317,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -4335,7 +4332,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -4350,7 +4347,7 @@
         <v>4913</v>
       </c>
       <c r="N11" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>19</v>
@@ -4373,7 +4370,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
@@ -4388,7 +4385,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>17</v>
@@ -4403,7 +4400,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>17</v>
@@ -4526,7 +4523,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4541,7 +4538,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4556,7 +4553,7 @@
         <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4579,7 +4576,7 @@
         <v>681</v>
       </c>
       <c r="D16" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>148</v>
@@ -4594,7 +4591,7 @@
         <v>1004</v>
       </c>
       <c r="I16" s="7">
-        <v>713887</v>
+        <v>660463</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>151</v>
@@ -4609,7 +4606,7 @@
         <v>1685</v>
       </c>
       <c r="N16" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>154</v>
@@ -4630,7 +4627,7 @@
         <v>1992</v>
       </c>
       <c r="D17" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>157</v>
@@ -4645,7 +4642,7 @@
         <v>2921</v>
       </c>
       <c r="I17" s="7">
-        <v>2249521</v>
+        <v>2237823</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>160</v>
@@ -4660,7 +4657,7 @@
         <v>4913</v>
       </c>
       <c r="N17" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>163</v>
@@ -4681,7 +4678,7 @@
         <v>691</v>
       </c>
       <c r="D18" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>166</v>
@@ -4696,31 +4693,31 @@
         <v>1427</v>
       </c>
       <c r="I18" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>169</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M18" s="7">
         <v>2118</v>
       </c>
       <c r="N18" s="7">
-        <v>1377587</v>
+        <v>1270446</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,7 +4729,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -4747,7 +4744,7 @@
         <v>5352</v>
       </c>
       <c r="I19" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>19</v>
@@ -4762,7 +4759,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>19</v>
